--- a/codelists/2106-03 FSDF Themes vocab - excel to skos-play.xlsx
+++ b/codelists/2106-03 FSDF Themes vocab - excel to skos-play.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u36545\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cox075\dev\AGLDWG\FSDF\codelists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C77DE-4742-4220-8D9E-73255494823A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="8085" yWindow="4530" windowWidth="27795" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FSDF-Themes" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -110,136 +111,142 @@
     <t>skos:altLabel@en</t>
   </si>
   <si>
-    <t>URI:administrative-boundaries</t>
-  </si>
-  <si>
     <t>administrative boundaries</t>
   </si>
   <si>
     <t>Administrative Boundaries define the spatial extent of legislative jurisdictions and regulatory, electoral, statistical and maritime geographic areas</t>
   </si>
   <si>
-    <t>URI:buildings-and-settlements</t>
-  </si>
-  <si>
     <t>buildings and settlements</t>
   </si>
   <si>
     <t>A building refers to any roofed structure permanently constructed or erected on its site, for the protection of humans, animals, things, or the production of economic goods. Settlements are collections of buildings and associated features where a community carries out socio-economic activities</t>
   </si>
   <si>
-    <t>URI:elevation-and-depth</t>
-  </si>
-  <si>
     <t>elevation and depth</t>
   </si>
   <si>
     <t>Elevation and Depth is the measurement of the Earth’s surface (wet or dry) above or below a vertical datum to obtain either the height of the land or a bathymetric depth. Elevation and Depth information data is collected using a range of sensors; including laser, sound navigation and ranging (sonar), radio detection and ranging (radar), optical remote sensing and survey techniques to derive spot heights, raster surfaces, contours and digital models of terrain</t>
   </si>
   <si>
-    <t>URI:geocoded-addressing</t>
-  </si>
-  <si>
     <t>geocoded addressing</t>
   </si>
   <si>
     <t>An address is a structured label—usually containing a property number, a road name and a locality name—used to identify a plot of land, a building or part of a building, or some other construction. Geocoded addressing is the process of associating an address with coordinates such as a latitude and longitude to enable it to be readily mapped and related to other spatial data</t>
   </si>
   <si>
-    <t>URI:geology-and-soils</t>
-  </si>
-  <si>
     <t>geology and soils</t>
   </si>
   <si>
     <t>Geology is the composition and properties of geologic materials (rocks and sediments) underground and outcropping at the Earth’s surface. It includes bedrock, aquifers, geomorphology for land and marine environments, mineral resources and overlying soils. Soils are the upper part of the Earth’s crust, formed by mineral particles, organic matter, water, air, and living organisms</t>
   </si>
   <si>
-    <t>URI:imagery</t>
-  </si>
-  <si>
     <t>imagery</t>
   </si>
   <si>
     <t>Imagery is the output derived from the use of sensor technologies to detect, locate, classify and record objects relative to the surface of the Earth. This includes data sourced from satellite, airborne and terrestrial sensors and cameras having a range of capabilities. It includes, but is not limited to, orthorectified multispectral, hyperspectral, laser and radar data. Land cover is derived from imagery</t>
   </si>
   <si>
-    <t>URI:land-cover-and-land-use</t>
-  </si>
-  <si>
     <t>land cover and land use</t>
   </si>
   <si>
     <t>Land Cover represent the physical and biological cover of the Earth’s surface. Land Use is the current and future planned management, and modification of the natural environment for different human purposes or economic activities</t>
   </si>
   <si>
-    <t>URI:land-parcel-and-property</t>
-  </si>
-  <si>
     <t>land parcel and property</t>
   </si>
   <si>
     <t>Land Parcel and Property contains a record of interests in land. The data has geographical descriptions that allow users to link to information describing ownership, value of real property in a district and nature of the boundary</t>
   </si>
   <si>
-    <t>URI:physical-infrastructure</t>
-  </si>
-  <si>
     <t>physical infrastructure</t>
   </si>
   <si>
     <t>The Physical Infrastructure theme includes industrial &amp; utility facilities, and the service delivery facilities associated with administrative &amp; social governmental services such as public administration, utilities, transport, civil protection, schools and hospitals</t>
   </si>
   <si>
-    <t>URI:place-names</t>
-  </si>
-  <si>
     <t>place names</t>
   </si>
   <si>
     <t>A geographical index or dictionary of the names of cultural and physical features and their associated location in Australia. These names can include approved, unapproved, commonly used, alternate and historical place names</t>
   </si>
   <si>
-    <t>URI:population-distributions</t>
-  </si>
-  <si>
     <t>population distributions</t>
   </si>
   <si>
     <t>The Population Distribution theme covers the geographical distribution of people, including population characteristics</t>
   </si>
   <si>
-    <t>URI:positioning</t>
-  </si>
-  <si>
     <t>positioning</t>
   </si>
   <si>
     <t>Positioning is Australia's authoritative, reliable, high accuracy spatial referencing system. The Positioning Service includes the coordinates and their uncertainty of all location based data promulgated from, or related to, the Australian Fiducial Network (AFN) and the Australian National Levelling Network (ANLN)</t>
   </si>
   <si>
-    <t>URI:transport</t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
     <t>The Transport theme is a representation of the land, water and air networks used to move people and goods, and deliver services from one location to another. It includes network connectivity and characteristics such as type, name and potential restrictions on what can be moved through the network</t>
   </si>
   <si>
-    <t>URI:water</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
     <t>The Water theme (Water) encompasses hydrology which is the study of the movement, distribution and quality of water, including the hydrologic cycles, water resources and environmental watershed sustainability</t>
+  </si>
+  <si>
+    <t>https://linked.data.gov.au/def/fsdf/themes/</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>theme:administrative-boundaries</t>
+  </si>
+  <si>
+    <t>theme:buildings-and-settlements</t>
+  </si>
+  <si>
+    <t>theme:elevation-and-depth</t>
+  </si>
+  <si>
+    <t>theme:geocoded-addressing</t>
+  </si>
+  <si>
+    <t>theme:geology-and-soils</t>
+  </si>
+  <si>
+    <t>theme:imagery</t>
+  </si>
+  <si>
+    <t>theme:land-cover-and-land-use</t>
+  </si>
+  <si>
+    <t>theme:land-parcel-and-property</t>
+  </si>
+  <si>
+    <t>theme:physical-infrastructure</t>
+  </si>
+  <si>
+    <t>theme:place-names</t>
+  </si>
+  <si>
+    <t>theme:population-distributions</t>
+  </si>
+  <si>
+    <t>theme:positioning</t>
+  </si>
+  <si>
+    <t>theme:transport</t>
+  </si>
+  <si>
+    <t>theme:water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -644,10 +651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2368"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -693,10 +702,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,169 +815,169 @@
     </row>
     <row r="19" spans="1:4" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" s="12" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" s="12" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" s="12" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" s="12" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" s="12" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" s="12" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" s="12" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" s="12" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" s="12" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -3310,11 +3319,11 @@
     <row r="2368" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
